--- a/IDM_User_Codes.xlsx
+++ b/IDM_User_Codes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B180"/>
+  <dimension ref="A1:B183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1516,1078 +1516,1114 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>LFA56301</t>
+          <t>KZU53477</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>trbu-XQWz</t>
+          <t>1qwx-jHLR</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>LGP73888</t>
+          <t>LFA56301</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DcIT-TKtd</t>
+          <t>trbu-XQWz</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>LHQ57930</t>
+          <t>LGP73888</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>cRpb-1kZX</t>
+          <t>DcIT-TKtd</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>LJE73544</t>
+          <t>LHQ57930</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>c8yU-Zgju</t>
+          <t>cRpb-1kZX</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>LKG10504</t>
+          <t>LJE73544</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>t6Zj-7N4q</t>
+          <t>c8yU-Zgju</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>LLI56060</t>
+          <t>LKG10504</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ePiy-wSTy</t>
+          <t>t6Zj-7N4q</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>LPM87075</t>
+          <t>LLI56060</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>AgXC-arDZ</t>
+          <t>ePiy-wSTy</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MAI64055</t>
+          <t>LPM87075</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Mzqj-Ky8q</t>
+          <t>AgXC-arDZ</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MDE12029</t>
+          <t>MAI64055</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>hhXj-vBGM</t>
+          <t>Mzqj-Ky8q</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MEG11153</t>
+          <t>MDE12029</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>QThA-UkVH</t>
+          <t>hhXj-vBGM</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>MIJ60289</t>
+          <t>MEG11153</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>YgVT-De6l</t>
+          <t>QThA-UkVH</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MNW15780</t>
+          <t>MIJ60289</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>6iUB-Vag7</t>
+          <t>YgVT-De6l</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MRQ02763</t>
+          <t>MNW15780</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>jkZw-MaOb</t>
+          <t>6iUB-Vag7</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>MUE50996</t>
+          <t>MRQ02763</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>UIda-nQtd</t>
+          <t>jkZw-MaOb</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MUX13896</t>
+          <t>MUE50996</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>r20R-BlFc</t>
+          <t>UIda-nQtd</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MXM72788</t>
+          <t>MUX13896</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>iRyF-IaTc</t>
+          <t>r20R-BlFc</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MYX47244</t>
+          <t>MXC93247</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>zpLV-zFXv</t>
+          <t>fcAI-rABo</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>NAQ63112</t>
+          <t>MXM72788</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>vedO-3joS</t>
+          <t>iRyF-IaTc</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>NCL61296</t>
+          <t>MYX47244</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MTj9-lIY8</t>
+          <t>zpLV-zFXv</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>NDJ67099</t>
+          <t>NAQ63112</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>hrBW-w842</t>
+          <t>vedO-3joS</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>NLP67632</t>
+          <t>NCL61296</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>b9F6-vbZ5</t>
+          <t>MTj9-lIY8</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>NPD00961</t>
+          <t>NDJ67099</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>aI8u-zYiw</t>
+          <t>hrBW-w842</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>NUI19784</t>
+          <t>NLP67632</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>mF1f-kCQW</t>
+          <t>b9F6-vbZ5</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>NWX06153</t>
+          <t>NPD00961</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>N3G4-xe8w</t>
+          <t>aI8u-zYiw</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>NYF03161</t>
+          <t>NUI19784</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>zMxQ-K0fi</t>
+          <t>mF1f-kCQW</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>NZW46214</t>
+          <t>NWX06153</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>09st-zHFg</t>
+          <t>N3G4-xe8w</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>NZZ50766</t>
+          <t>NYF03161</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>XINJ-KGsC</t>
+          <t>zMxQ-K0fi</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>OBI75581</t>
+          <t>NZW46214</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Mygc-BSFY</t>
+          <t>09st-zHFg</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>OKY47911</t>
+          <t>NZZ50766</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>uSoZ-cHIn</t>
+          <t>XINJ-KGsC</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ORR85927</t>
+          <t>OBI75581</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>JgtA-rF6p</t>
+          <t>Mygc-BSFY</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ORT63362</t>
+          <t>OKY47911</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>XZT6-FxOF</t>
+          <t>uSoZ-cHIn</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>OSB52441</t>
+          <t>ORR85927</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>I1Cv-DmRA</t>
+          <t>JgtA-rF6p</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>OWR55957</t>
+          <t>ORT63362</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>5xs5-2GVm</t>
+          <t>XZT6-FxOF</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>OXE34055</t>
+          <t>OSB52441</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>QMAt-FrNE</t>
+          <t>I1Cv-DmRA</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>OYK39161</t>
+          <t>OWR55957</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>nDoT-dKaH</t>
+          <t>5xs5-2GVm</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>OYZ43696</t>
+          <t>OXE34055</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NE1A-0H4Y</t>
+          <t>QMAt-FrNE</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>PDL18808</t>
+          <t>OYK39161</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>AyIU-xTfq</t>
+          <t>nDoT-dKaH</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>PDY46515</t>
+          <t>OYZ43696</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Gg8E-S2pr</t>
+          <t>NE1A-0H4Y</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>PEP57928</t>
+          <t>PDL18808</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>o921-Slsb</t>
+          <t>AyIU-xTfq</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>PJT16152</t>
+          <t>PDY46515</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ExFD-xCid</t>
+          <t>Gg8E-S2pr</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>PLL97657</t>
+          <t>PEP57928</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NWjX-D2LF</t>
+          <t>o921-Slsb</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>PVU41752</t>
+          <t>PJT16152</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ugqe-Crjb</t>
+          <t>ExFD-xCid</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>QFN79396</t>
+          <t>PLL97657</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>jXUf-ZSmc</t>
+          <t>NWjX-D2LF</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>QFU06512</t>
+          <t>PVU41752</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MNwE-V6p6</t>
+          <t>ugqe-Crjb</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>QRB56514</t>
+          <t>QFN79396</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ZmLU-WzDm</t>
+          <t>jXUf-ZSmc</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>QUE22078</t>
+          <t>QFU06512</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>tCyA-Oi7m</t>
+          <t>MNwE-V6p6</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>QYS77373</t>
+          <t>QRB56514</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>bdKc-q4v6</t>
+          <t>ZmLU-WzDm</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>RBA20127</t>
+          <t>QUE22078</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>oE79-b1Se</t>
+          <t>tCyA-Oi7m</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>RLQ73857</t>
+          <t>QYS77373</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>QZVO-4p3B</t>
+          <t>bdKc-q4v6</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>RSN71799</t>
+          <t>RBA20127</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>APKz-8tHA</t>
+          <t>oE79-b1Se</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SAF98648</t>
+          <t>RLQ73857</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>JUDx-dQqy</t>
+          <t>QZVO-4p3B</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SDE98641</t>
+          <t>RSN71799</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>E4LL-qV7u</t>
+          <t>APKz-8tHA</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SEV98034</t>
+          <t>SAF98648</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>3FMv-ztV8</t>
+          <t>JUDx-dQqy</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SGE51092</t>
+          <t>SDE98641</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>9G7O-tS42</t>
+          <t>E4LL-qV7u</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SLP43775</t>
+          <t>SEV98034</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>JIk1-QTjm</t>
+          <t>3FMv-ztV8</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SMF79012</t>
+          <t>SGE51092</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NcnL-Ufev</t>
+          <t>9G7O-tS42</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SNZ44527</t>
+          <t>SLP43775</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Idtr-Ef1p</t>
+          <t>JIk1-QTjm</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SPZ85652</t>
+          <t>SMF79012</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>BqNU-jKbs</t>
+          <t>NcnL-Ufev</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SQX65443</t>
+          <t>SNZ44527</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2Y2u-Iexu</t>
+          <t>Idtr-Ef1p</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SSU10232</t>
+          <t>SPZ85652</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2s1b-MrBM</t>
+          <t>BqNU-jKbs</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SYH46751</t>
+          <t>SQX65443</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>g47k-j3HG</t>
+          <t>2Y2u-Iexu</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>TMJ36970</t>
+          <t>SSU10232</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NiMt-vJm1</t>
+          <t>2s1b-MrBM</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>TRC98148</t>
+          <t>SYH46751</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ImK9-sJVr</t>
+          <t>g47k-j3HG</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>TTS04230</t>
+          <t>TKW11810</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>oJvJ-C0eE</t>
+          <t>XbfA-yocA</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>TXC42578</t>
+          <t>TMJ36970</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ttrI-HkEA</t>
+          <t>NiMt-vJm1</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>UUR79971</t>
+          <t>TRC98148</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2Vvw-yPgX</t>
+          <t>ImK9-sJVr</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>VDD06679</t>
+          <t>TTS04230</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>9NFD-F33z</t>
+          <t>oJvJ-C0eE</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>VEQ81429</t>
+          <t>TXC42578</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>xnGV-gtxP</t>
+          <t>ttrI-HkEA</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>VPE32737</t>
+          <t>UUR79971</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>83SX-bO49</t>
+          <t>2Vvw-yPgX</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>WJH36041</t>
+          <t>VDD06679</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>yPk4-9kvI</t>
+          <t>9NFD-F33z</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>WNA57398</t>
+          <t>VEQ81429</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CU9v-k8Hc</t>
+          <t>xnGV-gtxP</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>WUA13603</t>
+          <t>VPE32737</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>hdCj-fLq2</t>
+          <t>83SX-bO49</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>WUH93925</t>
+          <t>WJH36041</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>8m3J-Gzlk</t>
+          <t>yPk4-9kvI</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>WWS24235</t>
+          <t>WNA57398</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>dTMF-Ocal</t>
+          <t>CU9v-k8Hc</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>XKS75480</t>
+          <t>WUA13603</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>c0hS-CdvD</t>
+          <t>hdCj-fLq2</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>XOA75961</t>
+          <t>WUH93925</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>VRah-kBaa</t>
+          <t>8m3J-Gzlk</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>XYT33259</t>
+          <t>WWS24235</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ahUH-85T2</t>
+          <t>dTMF-Ocal</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>XYZ70850</t>
+          <t>XKS75480</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>jdV6-HalU</t>
+          <t>c0hS-CdvD</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>YBX87679</t>
+          <t>XOA75961</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>442D-goVh</t>
+          <t>VRah-kBaa</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>YCN31679</t>
+          <t>XYT33259</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>SBfE-010a</t>
+          <t>ahUH-85T2</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>YFU10307</t>
+          <t>XYZ70850</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>pv8C-S2qP</t>
+          <t>jdV6-HalU</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>YGP30798</t>
+          <t>YBX87679</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>dZEv-nHKw</t>
+          <t>442D-goVh</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>YHZ51082</t>
+          <t>YCN31679</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>7j63-7HKa</t>
+          <t>SBfE-010a</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>YOT12953</t>
+          <t>YFU10307</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SxGc-ZaIN</t>
+          <t>pv8C-S2qP</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ZAM21080</t>
+          <t>YGP30798</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>COFy-pMla</t>
+          <t>dZEv-nHKw</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ZHU54125</t>
+          <t>YHZ51082</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>5RJe-0r17</t>
+          <t>7j63-7HKa</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ZLP77106</t>
+          <t>YOT12953</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>djSn-TgS9</t>
+          <t>SxGc-ZaIN</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ZNA23106</t>
+          <t>ZAM21080</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>SHid-kPC3</t>
+          <t>COFy-pMla</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ZSU27095</t>
+          <t>ZHU54125</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>3TQp-7e2s</t>
+          <t>5RJe-0r17</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
+          <t>ZLP77106</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>djSn-TgS9</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>ZNA23106</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>SHid-kPC3</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>ZSU27095</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>3TQp-7e2s</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
           <t>ZVK04224</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>9gaA-gLOl</t>
         </is>

--- a/IDM_User_Codes.xlsx
+++ b/IDM_User_Codes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B183"/>
+  <dimension ref="A1:B184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -940,1690 +940,1702 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>FQP62630</t>
+          <t>FOJ78948</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>YPWV-F4Jw</t>
+          <t>z4ZP-wYr2</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>FRS19080</t>
+          <t>FQP62630</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>8lEh-Ggjd</t>
+          <t>YPWV-F4Jw</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>FUSURIN1</t>
+          <t>FRS19080</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>sQd2-HCth</t>
+          <t>8lEh-Ggjd</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>FWZ82980</t>
+          <t>FUSURIN1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Km0s-i1f3</t>
+          <t>sQd2-HCth</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>FXB60927</t>
+          <t>FWZ82980</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>d20X-vLsV</t>
+          <t>Km0s-i1f3</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>GCV61524</t>
+          <t>FXB60927</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Xhaf-F9mT</t>
+          <t>d20X-vLsV</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GEL08954</t>
+          <t>GCV61524</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>zqti-TUKL</t>
+          <t>Xhaf-F9mT</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GFN61654</t>
+          <t>GEL08954</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>nOpR-i46M</t>
+          <t>zqti-TUKL</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GIE22684</t>
+          <t>GFN61654</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7YFY-lEPW</t>
+          <t>nOpR-i46M</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>GKE90115</t>
+          <t>GIE22684</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ZK3R-ekIU</t>
+          <t>7YFY-lEPW</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>GLG55164</t>
+          <t>GKE90115</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>rMri-gCbQ</t>
+          <t>ZK3R-ekIU</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>GQG06884</t>
+          <t>GLG55164</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>yZSK-Cyby</t>
+          <t>rMri-gCbQ</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>GSJ38697</t>
+          <t>GQG06884</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>dcc9-1DuY</t>
+          <t>yZSK-Cyby</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>GSY94523</t>
+          <t>GSJ38697</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CykC-fp9I</t>
+          <t>dcc9-1DuY</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>GVM53776</t>
+          <t>GSY94523</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>IUZs-UrSU</t>
+          <t>CykC-fp9I</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HBP33017</t>
+          <t>GVM53776</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>D3ly-X1Qr</t>
+          <t>IUZs-UrSU</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HNS34640</t>
+          <t>HBP33017</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>dPb1-DHLF</t>
+          <t>D3ly-X1Qr</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HPT02640</t>
+          <t>HNS34640</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>c2kk-PGg8</t>
+          <t>dPb1-DHLF</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HQH08532</t>
+          <t>HPT02640</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0fh0-QX5H</t>
+          <t>c2kk-PGg8</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HRY29891</t>
+          <t>HQH08532</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>UjZ9-SZGT</t>
+          <t>0fh0-QX5H</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HWP25524</t>
+          <t>HRY29891</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BWy7-13Ec</t>
+          <t>UjZ9-SZGT</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>IAE88291</t>
+          <t>HWP25524</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4Ceg-RIv5</t>
+          <t>BWy7-13Ec</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>IGN23276</t>
+          <t>IAE88291</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ZKGo-6azn</t>
+          <t>4Ceg-RIv5</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>IGX57659</t>
+          <t>IGN23276</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>F8R5-Mhli</t>
+          <t>ZKGo-6azn</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ILO34901</t>
+          <t>IGX57659</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>VPO5-2Unw</t>
+          <t>F8R5-Mhli</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>IMW07942</t>
+          <t>ILO34901</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ors6-bajw</t>
+          <t>VPO5-2Unw</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>IQI33918</t>
+          <t>IMW07942</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>quU8-kFRw</t>
+          <t>ors6-bajw</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>IUU53315</t>
+          <t>IQI33918</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>bHGN-Gt9k</t>
+          <t>quU8-kFRw</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>IWX83001</t>
+          <t>IUU53315</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0hfb-VytH</t>
+          <t>bHGN-Gt9k</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>JJI69427</t>
+          <t>IWX83001</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Mcpe-MdKl</t>
+          <t>0hfb-VytH</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>JMV12916</t>
+          <t>JJI69427</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>wFYF-qjdW</t>
+          <t>Mcpe-MdKl</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>JNQ15800</t>
+          <t>JMV12916</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>UOVA-N6XO</t>
+          <t>wFYF-qjdW</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>JSH83558</t>
+          <t>JNQ15800</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NUAZ-lHPu</t>
+          <t>UOVA-N6XO</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>JSO81414</t>
+          <t>JSH83558</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2SfQ-XyEl</t>
+          <t>NUAZ-lHPu</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>JTN17189</t>
+          <t>JSO81414</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>wg9A-To8N</t>
+          <t>2SfQ-XyEl</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>JTQ20003</t>
+          <t>JTN17189</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>xXs3-0q1q</t>
+          <t>wg9A-To8N</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>KCH53154</t>
+          <t>JTQ20003</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>RwJm-IF1y</t>
+          <t>xXs3-0q1q</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>KCH80368</t>
+          <t>KCH53154</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>j6lG-9k2c</t>
+          <t>RwJm-IF1y</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>KCS62207</t>
+          <t>KCH80368</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ge7V-N1Fb</t>
+          <t>j6lG-9k2c</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>KNB79119</t>
+          <t>KCS62207</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BRVy-AfTK</t>
+          <t>Ge7V-N1Fb</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>KPJ23941</t>
+          <t>KNB79119</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>qcjI-pNgm</t>
+          <t>BRVy-AfTK</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>KQT40874</t>
+          <t>KPJ23941</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>sgUM-aaYM</t>
+          <t>qcjI-pNgm</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>KRH18822</t>
+          <t>KQT40874</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>vMtE-4cYL</t>
+          <t>sgUM-aaYM</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>KTK81122</t>
+          <t>KRH18822</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>X8Dz-iKF1</t>
+          <t>vMtE-4cYL</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>KVA96952</t>
+          <t>KTK81122</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>VuFC-8E26</t>
+          <t>X8Dz-iKF1</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>KVU62139</t>
+          <t>KVA96952</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>LUI5-Geov</t>
+          <t>VuFC-8E26</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>KXZ79956</t>
+          <t>KVU62139</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>xmdQ-yw08</t>
+          <t>LUI5-Geov</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>KZL99357</t>
+          <t>KXZ79956</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>14ZB-xFwZ</t>
+          <t>xmdQ-yw08</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>KZU53477</t>
+          <t>KZL99357</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1qwx-jHLR</t>
+          <t>14ZB-xFwZ</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>LFA56301</t>
+          <t>KZU53477</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>trbu-XQWz</t>
+          <t>1qwx-jHLR</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>LGP73888</t>
+          <t>LFA56301</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DcIT-TKtd</t>
+          <t>trbu-XQWz</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>LHQ57930</t>
+          <t>LGP73888</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>cRpb-1kZX</t>
+          <t>DcIT-TKtd</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>LJE73544</t>
+          <t>LHQ57930</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>c8yU-Zgju</t>
+          <t>cRpb-1kZX</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>LKG10504</t>
+          <t>LJE73544</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>t6Zj-7N4q</t>
+          <t>c8yU-Zgju</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>LLI56060</t>
+          <t>LKG10504</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ePiy-wSTy</t>
+          <t>t6Zj-7N4q</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>LPM87075</t>
+          <t>LLI56060</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>AgXC-arDZ</t>
+          <t>ePiy-wSTy</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MAI64055</t>
+          <t>LPM87075</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Mzqj-Ky8q</t>
+          <t>AgXC-arDZ</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MDE12029</t>
+          <t>MAI64055</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>hhXj-vBGM</t>
+          <t>Mzqj-Ky8q</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>MEG11153</t>
+          <t>MDE12029</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>QThA-UkVH</t>
+          <t>hhXj-vBGM</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MIJ60289</t>
+          <t>MEG11153</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>YgVT-De6l</t>
+          <t>QThA-UkVH</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MNW15780</t>
+          <t>MIJ60289</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>6iUB-Vag7</t>
+          <t>YgVT-De6l</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>MRQ02763</t>
+          <t>MNW15780</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>jkZw-MaOb</t>
+          <t>6iUB-Vag7</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MUE50996</t>
+          <t>MRQ02763</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>UIda-nQtd</t>
+          <t>jkZw-MaOb</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MUX13896</t>
+          <t>MUE50996</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>r20R-BlFc</t>
+          <t>UIda-nQtd</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MXC93247</t>
+          <t>MUX13896</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>fcAI-rABo</t>
+          <t>r20R-BlFc</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MXM72788</t>
+          <t>MXC93247</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>iRyF-IaTc</t>
+          <t>fcAI-rABo</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MYX47244</t>
+          <t>MXM72788</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>zpLV-zFXv</t>
+          <t>iRyF-IaTc</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>NAQ63112</t>
+          <t>MYX47244</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>vedO-3joS</t>
+          <t>zpLV-zFXv</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>NCL61296</t>
+          <t>NAQ63112</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MTj9-lIY8</t>
+          <t>vedO-3joS</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>NDJ67099</t>
+          <t>NCL61296</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>hrBW-w842</t>
+          <t>MTj9-lIY8</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>NLP67632</t>
+          <t>NDJ67099</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>b9F6-vbZ5</t>
+          <t>hrBW-w842</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>NPD00961</t>
+          <t>NLP67632</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>aI8u-zYiw</t>
+          <t>b9F6-vbZ5</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>NUI19784</t>
+          <t>NPD00961</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>mF1f-kCQW</t>
+          <t>aI8u-zYiw</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>NWX06153</t>
+          <t>NUI19784</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>N3G4-xe8w</t>
+          <t>mF1f-kCQW</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>NYF03161</t>
+          <t>NWX06153</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>zMxQ-K0fi</t>
+          <t>N3G4-xe8w</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>NZW46214</t>
+          <t>NYF03161</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>09st-zHFg</t>
+          <t>zMxQ-K0fi</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>NZZ50766</t>
+          <t>NZW46214</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>XINJ-KGsC</t>
+          <t>09st-zHFg</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>OBI75581</t>
+          <t>NZZ50766</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Mygc-BSFY</t>
+          <t>XINJ-KGsC</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>OKY47911</t>
+          <t>OBI75581</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>uSoZ-cHIn</t>
+          <t>Mygc-BSFY</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ORR85927</t>
+          <t>OKY47911</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>JgtA-rF6p</t>
+          <t>uSoZ-cHIn</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ORT63362</t>
+          <t>ORR85927</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>XZT6-FxOF</t>
+          <t>JgtA-rF6p</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>OSB52441</t>
+          <t>ORT63362</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>I1Cv-DmRA</t>
+          <t>XZT6-FxOF</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>OWR55957</t>
+          <t>OSB52441</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>5xs5-2GVm</t>
+          <t>I1Cv-DmRA</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>OXE34055</t>
+          <t>OWR55957</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>QMAt-FrNE</t>
+          <t>5xs5-2GVm</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>OYK39161</t>
+          <t>OXE34055</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>nDoT-dKaH</t>
+          <t>QMAt-FrNE</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>OYZ43696</t>
+          <t>OYK39161</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>NE1A-0H4Y</t>
+          <t>nDoT-dKaH</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>PDL18808</t>
+          <t>OYZ43696</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>AyIU-xTfq</t>
+          <t>NE1A-0H4Y</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>PDY46515</t>
+          <t>PDL18808</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Gg8E-S2pr</t>
+          <t>AyIU-xTfq</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>PEP57928</t>
+          <t>PDY46515</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>o921-Slsb</t>
+          <t>Gg8E-S2pr</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>PJT16152</t>
+          <t>PEP57928</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ExFD-xCid</t>
+          <t>o921-Slsb</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>PLL97657</t>
+          <t>PJT16152</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NWjX-D2LF</t>
+          <t>ExFD-xCid</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>PVU41752</t>
+          <t>PLL97657</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ugqe-Crjb</t>
+          <t>NWjX-D2LF</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>QFN79396</t>
+          <t>PVU41752</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>jXUf-ZSmc</t>
+          <t>ugqe-Crjb</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>QFU06512</t>
+          <t>QFN79396</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MNwE-V6p6</t>
+          <t>jXUf-ZSmc</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>QRB56514</t>
+          <t>QFU06512</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ZmLU-WzDm</t>
+          <t>MNwE-V6p6</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>QUE22078</t>
+          <t>QRB56514</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>tCyA-Oi7m</t>
+          <t>ZmLU-WzDm</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>QYS77373</t>
+          <t>QUE22078</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>bdKc-q4v6</t>
+          <t>tCyA-Oi7m</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>RBA20127</t>
+          <t>QYS77373</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>oE79-b1Se</t>
+          <t>bdKc-q4v6</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>RLQ73857</t>
+          <t>RBA20127</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>QZVO-4p3B</t>
+          <t>oE79-b1Se</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>RSN71799</t>
+          <t>RLQ73857</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>APKz-8tHA</t>
+          <t>QZVO-4p3B</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SAF98648</t>
+          <t>RSN71799</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>JUDx-dQqy</t>
+          <t>APKz-8tHA</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SDE98641</t>
+          <t>SAF98648</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>E4LL-qV7u</t>
+          <t>JUDx-dQqy</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SEV98034</t>
+          <t>SDE98641</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>3FMv-ztV8</t>
+          <t>E4LL-qV7u</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SGE51092</t>
+          <t>SEV98034</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>9G7O-tS42</t>
+          <t>3FMv-ztV8</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SLP43775</t>
+          <t>SGE51092</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>JIk1-QTjm</t>
+          <t>9G7O-tS42</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SMF79012</t>
+          <t>SLP43775</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NcnL-Ufev</t>
+          <t>JIk1-QTjm</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SNZ44527</t>
+          <t>SMF79012</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Idtr-Ef1p</t>
+          <t>NcnL-Ufev</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SPZ85652</t>
+          <t>SNZ44527</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>BqNU-jKbs</t>
+          <t>Idtr-Ef1p</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SQX65443</t>
+          <t>SPZ85652</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2Y2u-Iexu</t>
+          <t>BqNU-jKbs</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SSU10232</t>
+          <t>SQX65443</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2s1b-MrBM</t>
+          <t>2Y2u-Iexu</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SYH46751</t>
+          <t>SSU10232</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>g47k-j3HG</t>
+          <t>2s1b-MrBM</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>TKW11810</t>
+          <t>SYH46751</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>XbfA-yocA</t>
+          <t>g47k-j3HG</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>TMJ36970</t>
+          <t>TKW11810</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NiMt-vJm1</t>
+          <t>XbfA-yocA</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>TRC98148</t>
+          <t>TMJ36970</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ImK9-sJVr</t>
+          <t>NiMt-vJm1</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>TTS04230</t>
+          <t>TRC98148</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>oJvJ-C0eE</t>
+          <t>ImK9-sJVr</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>TXC42578</t>
+          <t>TTS04230</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ttrI-HkEA</t>
+          <t>oJvJ-C0eE</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>UUR79971</t>
+          <t>TXC42578</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2Vvw-yPgX</t>
+          <t>ttrI-HkEA</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>VDD06679</t>
+          <t>UUR79971</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>9NFD-F33z</t>
+          <t>2Vvw-yPgX</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>VEQ81429</t>
+          <t>VDD06679</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>xnGV-gtxP</t>
+          <t>9NFD-F33z</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>VPE32737</t>
+          <t>VEQ81429</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>83SX-bO49</t>
+          <t>xnGV-gtxP</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>WJH36041</t>
+          <t>VPE32737</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>yPk4-9kvI</t>
+          <t>83SX-bO49</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>WNA57398</t>
+          <t>WJH36041</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CU9v-k8Hc</t>
+          <t>yPk4-9kvI</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>WUA13603</t>
+          <t>WNA57398</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>hdCj-fLq2</t>
+          <t>CU9v-k8Hc</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>WUH93925</t>
+          <t>WUA13603</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>8m3J-Gzlk</t>
+          <t>hdCj-fLq2</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>WWS24235</t>
+          <t>WUH93925</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>dTMF-Ocal</t>
+          <t>8m3J-Gzlk</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>XKS75480</t>
+          <t>WWS24235</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>c0hS-CdvD</t>
+          <t>dTMF-Ocal</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>XOA75961</t>
+          <t>XKS75480</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>VRah-kBaa</t>
+          <t>c0hS-CdvD</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>XYT33259</t>
+          <t>XOA75961</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ahUH-85T2</t>
+          <t>VRah-kBaa</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>XYZ70850</t>
+          <t>XYT33259</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>jdV6-HalU</t>
+          <t>ahUH-85T2</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>YBX87679</t>
+          <t>XYZ70850</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>442D-goVh</t>
+          <t>jdV6-HalU</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>YCN31679</t>
+          <t>YBX87679</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>SBfE-010a</t>
+          <t>442D-goVh</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>YFU10307</t>
+          <t>YCN31679</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>pv8C-S2qP</t>
+          <t>SBfE-010a</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>YGP30798</t>
+          <t>YFU10307</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>dZEv-nHKw</t>
+          <t>pv8C-S2qP</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>YHZ51082</t>
+          <t>YGP30798</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>7j63-7HKa</t>
+          <t>dZEv-nHKw</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>YOT12953</t>
+          <t>YHZ51082</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>SxGc-ZaIN</t>
+          <t>7j63-7HKa</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ZAM21080</t>
+          <t>YOT12953</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>COFy-pMla</t>
+          <t>SxGc-ZaIN</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ZHU54125</t>
+          <t>ZAM21080</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>5RJe-0r17</t>
+          <t>COFy-pMla</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ZLP77106</t>
+          <t>ZHU54125</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>djSn-TgS9</t>
+          <t>5RJe-0r17</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ZNA23106</t>
+          <t>ZLP77106</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>SHid-kPC3</t>
+          <t>djSn-TgS9</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ZSU27095</t>
+          <t>ZNA23106</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>3TQp-7e2s</t>
+          <t>SHid-kPC3</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
+          <t>ZSU27095</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>3TQp-7e2s</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
           <t>ZVK04224</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>9gaA-gLOl</t>
         </is>

--- a/IDM_User_Codes.xlsx
+++ b/IDM_User_Codes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B184"/>
+  <dimension ref="A1:B185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2140,502 +2140,514 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>RSN71799</t>
+          <t>RNL06004</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>APKz-8tHA</t>
+          <t>WaLc-sBJY</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SAF98648</t>
+          <t>RSN71799</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>JUDx-dQqy</t>
+          <t>APKz-8tHA</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SDE98641</t>
+          <t>SAF98648</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>E4LL-qV7u</t>
+          <t>JUDx-dQqy</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SEV98034</t>
+          <t>SDE98641</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>3FMv-ztV8</t>
+          <t>E4LL-qV7u</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SGE51092</t>
+          <t>SEV98034</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>9G7O-tS42</t>
+          <t>3FMv-ztV8</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SLP43775</t>
+          <t>SGE51092</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>JIk1-QTjm</t>
+          <t>9G7O-tS42</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SMF79012</t>
+          <t>SLP43775</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NcnL-Ufev</t>
+          <t>JIk1-QTjm</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SNZ44527</t>
+          <t>SMF79012</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Idtr-Ef1p</t>
+          <t>NcnL-Ufev</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SPZ85652</t>
+          <t>SNZ44527</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>BqNU-jKbs</t>
+          <t>Idtr-Ef1p</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SQX65443</t>
+          <t>SPZ85652</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2Y2u-Iexu</t>
+          <t>BqNU-jKbs</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SSU10232</t>
+          <t>SQX65443</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2s1b-MrBM</t>
+          <t>2Y2u-Iexu</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SYH46751</t>
+          <t>SSU10232</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>g47k-j3HG</t>
+          <t>2s1b-MrBM</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>TKW11810</t>
+          <t>SYH46751</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>XbfA-yocA</t>
+          <t>g47k-j3HG</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>TMJ36970</t>
+          <t>TKW11810</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>NiMt-vJm1</t>
+          <t>XbfA-yocA</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>TRC98148</t>
+          <t>TMJ36970</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ImK9-sJVr</t>
+          <t>NiMt-vJm1</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>TTS04230</t>
+          <t>TRC98148</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>oJvJ-C0eE</t>
+          <t>ImK9-sJVr</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>TXC42578</t>
+          <t>TTS04230</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ttrI-HkEA</t>
+          <t>oJvJ-C0eE</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>UUR79971</t>
+          <t>TXC42578</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2Vvw-yPgX</t>
+          <t>ttrI-HkEA</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>VDD06679</t>
+          <t>UUR79971</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>9NFD-F33z</t>
+          <t>2Vvw-yPgX</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>VEQ81429</t>
+          <t>VDD06679</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>xnGV-gtxP</t>
+          <t>9NFD-F33z</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>VPE32737</t>
+          <t>VEQ81429</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>83SX-bO49</t>
+          <t>xnGV-gtxP</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>WJH36041</t>
+          <t>VPE32737</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>yPk4-9kvI</t>
+          <t>83SX-bO49</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>WNA57398</t>
+          <t>WJH36041</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CU9v-k8Hc</t>
+          <t>yPk4-9kvI</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>WUA13603</t>
+          <t>WNA57398</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>hdCj-fLq2</t>
+          <t>CU9v-k8Hc</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>WUH93925</t>
+          <t>WUA13603</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>8m3J-Gzlk</t>
+          <t>hdCj-fLq2</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>WWS24235</t>
+          <t>WUH93925</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>dTMF-Ocal</t>
+          <t>8m3J-Gzlk</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>XKS75480</t>
+          <t>WWS24235</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>c0hS-CdvD</t>
+          <t>dTMF-Ocal</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>XOA75961</t>
+          <t>XKS75480</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>VRah-kBaa</t>
+          <t>c0hS-CdvD</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>XYT33259</t>
+          <t>XOA75961</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ahUH-85T2</t>
+          <t>VRah-kBaa</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>XYZ70850</t>
+          <t>XYT33259</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>jdV6-HalU</t>
+          <t>ahUH-85T2</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>YBX87679</t>
+          <t>XYZ70850</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>442D-goVh</t>
+          <t>jdV6-HalU</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>YCN31679</t>
+          <t>YBX87679</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SBfE-010a</t>
+          <t>442D-goVh</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>YFU10307</t>
+          <t>YCN31679</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>pv8C-S2qP</t>
+          <t>SBfE-010a</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>YGP30798</t>
+          <t>YFU10307</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>dZEv-nHKw</t>
+          <t>pv8C-S2qP</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>YHZ51082</t>
+          <t>YGP30798</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>7j63-7HKa</t>
+          <t>dZEv-nHKw</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>YOT12953</t>
+          <t>YHZ51082</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>SxGc-ZaIN</t>
+          <t>7j63-7HKa</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ZAM21080</t>
+          <t>YOT12953</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>COFy-pMla</t>
+          <t>SxGc-ZaIN</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ZHU54125</t>
+          <t>ZAM21080</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>5RJe-0r17</t>
+          <t>COFy-pMla</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ZLP77106</t>
+          <t>ZHU54125</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>djSn-TgS9</t>
+          <t>5RJe-0r17</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ZNA23106</t>
+          <t>ZLP77106</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SHid-kPC3</t>
+          <t>djSn-TgS9</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ZSU27095</t>
+          <t>ZNA23106</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>3TQp-7e2s</t>
+          <t>SHid-kPC3</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
+          <t>ZSU27095</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>3TQp-7e2s</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
           <t>ZVK04224</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>9gaA-gLOl</t>
         </is>

--- a/IDM_User_Codes.xlsx
+++ b/IDM_User_Codes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B185"/>
+  <dimension ref="A1:B186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1036,1618 +1036,1630 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GFN61654</t>
+          <t>GEP48591</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>nOpR-i46M</t>
+          <t>ipb2-EtbP</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>GIE22684</t>
+          <t>GFN61654</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7YFY-lEPW</t>
+          <t>nOpR-i46M</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>GKE90115</t>
+          <t>GIE22684</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ZK3R-ekIU</t>
+          <t>7YFY-lEPW</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>GLG55164</t>
+          <t>GKE90115</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>rMri-gCbQ</t>
+          <t>ZK3R-ekIU</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>GQG06884</t>
+          <t>GLG55164</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>yZSK-Cyby</t>
+          <t>rMri-gCbQ</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>GSJ38697</t>
+          <t>GQG06884</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>dcc9-1DuY</t>
+          <t>yZSK-Cyby</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>GSY94523</t>
+          <t>GSJ38697</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CykC-fp9I</t>
+          <t>dcc9-1DuY</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>GVM53776</t>
+          <t>GSY94523</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>IUZs-UrSU</t>
+          <t>CykC-fp9I</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HBP33017</t>
+          <t>GVM53776</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>D3ly-X1Qr</t>
+          <t>IUZs-UrSU</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HNS34640</t>
+          <t>HBP33017</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>dPb1-DHLF</t>
+          <t>D3ly-X1Qr</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HPT02640</t>
+          <t>HNS34640</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>c2kk-PGg8</t>
+          <t>dPb1-DHLF</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HQH08532</t>
+          <t>HPT02640</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0fh0-QX5H</t>
+          <t>c2kk-PGg8</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HRY29891</t>
+          <t>HQH08532</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>UjZ9-SZGT</t>
+          <t>0fh0-QX5H</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HWP25524</t>
+          <t>HRY29891</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BWy7-13Ec</t>
+          <t>UjZ9-SZGT</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>IAE88291</t>
+          <t>HWP25524</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4Ceg-RIv5</t>
+          <t>BWy7-13Ec</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>IGN23276</t>
+          <t>IAE88291</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ZKGo-6azn</t>
+          <t>4Ceg-RIv5</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>IGX57659</t>
+          <t>IGN23276</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>F8R5-Mhli</t>
+          <t>ZKGo-6azn</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ILO34901</t>
+          <t>IGX57659</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>VPO5-2Unw</t>
+          <t>F8R5-Mhli</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>IMW07942</t>
+          <t>ILO34901</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ors6-bajw</t>
+          <t>VPO5-2Unw</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>IQI33918</t>
+          <t>IMW07942</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>quU8-kFRw</t>
+          <t>ors6-bajw</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>IUU53315</t>
+          <t>IQI33918</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>bHGN-Gt9k</t>
+          <t>quU8-kFRw</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>IWX83001</t>
+          <t>IUU53315</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0hfb-VytH</t>
+          <t>bHGN-Gt9k</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>JJI69427</t>
+          <t>IWX83001</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Mcpe-MdKl</t>
+          <t>0hfb-VytH</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>JMV12916</t>
+          <t>JJI69427</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>wFYF-qjdW</t>
+          <t>Mcpe-MdKl</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>JNQ15800</t>
+          <t>JMV12916</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>UOVA-N6XO</t>
+          <t>wFYF-qjdW</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>JSH83558</t>
+          <t>JNQ15800</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NUAZ-lHPu</t>
+          <t>UOVA-N6XO</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>JSO81414</t>
+          <t>JSH83558</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2SfQ-XyEl</t>
+          <t>NUAZ-lHPu</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>JTN17189</t>
+          <t>JSO81414</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>wg9A-To8N</t>
+          <t>2SfQ-XyEl</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>JTQ20003</t>
+          <t>JTN17189</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>xXs3-0q1q</t>
+          <t>wg9A-To8N</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>KCH53154</t>
+          <t>JTQ20003</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>RwJm-IF1y</t>
+          <t>xXs3-0q1q</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>KCH80368</t>
+          <t>KCH53154</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>j6lG-9k2c</t>
+          <t>RwJm-IF1y</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>KCS62207</t>
+          <t>KCH80368</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ge7V-N1Fb</t>
+          <t>j6lG-9k2c</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>KNB79119</t>
+          <t>KCS62207</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BRVy-AfTK</t>
+          <t>Ge7V-N1Fb</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>KPJ23941</t>
+          <t>KNB79119</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>qcjI-pNgm</t>
+          <t>BRVy-AfTK</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>KQT40874</t>
+          <t>KPJ23941</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>sgUM-aaYM</t>
+          <t>qcjI-pNgm</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>KRH18822</t>
+          <t>KQT40874</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>vMtE-4cYL</t>
+          <t>sgUM-aaYM</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>KTK81122</t>
+          <t>KRH18822</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>X8Dz-iKF1</t>
+          <t>vMtE-4cYL</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>KVA96952</t>
+          <t>KTK81122</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>VuFC-8E26</t>
+          <t>X8Dz-iKF1</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>KVU62139</t>
+          <t>KVA96952</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>LUI5-Geov</t>
+          <t>VuFC-8E26</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>KXZ79956</t>
+          <t>KVU62139</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>xmdQ-yw08</t>
+          <t>LUI5-Geov</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>KZL99357</t>
+          <t>KXZ79956</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>14ZB-xFwZ</t>
+          <t>xmdQ-yw08</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>KZU53477</t>
+          <t>KZL99357</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1qwx-jHLR</t>
+          <t>14ZB-xFwZ</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>LFA56301</t>
+          <t>KZU53477</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>trbu-XQWz</t>
+          <t>1qwx-jHLR</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>LGP73888</t>
+          <t>LFA56301</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DcIT-TKtd</t>
+          <t>trbu-XQWz</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>LHQ57930</t>
+          <t>LGP73888</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>cRpb-1kZX</t>
+          <t>DcIT-TKtd</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>LJE73544</t>
+          <t>LHQ57930</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>c8yU-Zgju</t>
+          <t>cRpb-1kZX</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>LKG10504</t>
+          <t>LJE73544</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>t6Zj-7N4q</t>
+          <t>c8yU-Zgju</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>LLI56060</t>
+          <t>LKG10504</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ePiy-wSTy</t>
+          <t>t6Zj-7N4q</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>LPM87075</t>
+          <t>LLI56060</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>AgXC-arDZ</t>
+          <t>ePiy-wSTy</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MAI64055</t>
+          <t>LPM87075</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Mzqj-Ky8q</t>
+          <t>AgXC-arDZ</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>MDE12029</t>
+          <t>MAI64055</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>hhXj-vBGM</t>
+          <t>Mzqj-Ky8q</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MEG11153</t>
+          <t>MDE12029</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>QThA-UkVH</t>
+          <t>hhXj-vBGM</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MIJ60289</t>
+          <t>MEG11153</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>YgVT-De6l</t>
+          <t>QThA-UkVH</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>MNW15780</t>
+          <t>MIJ60289</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>6iUB-Vag7</t>
+          <t>YgVT-De6l</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MRQ02763</t>
+          <t>MNW15780</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>jkZw-MaOb</t>
+          <t>6iUB-Vag7</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MUE50996</t>
+          <t>MRQ02763</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>UIda-nQtd</t>
+          <t>jkZw-MaOb</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MUX13896</t>
+          <t>MUE50996</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>r20R-BlFc</t>
+          <t>UIda-nQtd</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MXC93247</t>
+          <t>MUX13896</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>fcAI-rABo</t>
+          <t>r20R-BlFc</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MXM72788</t>
+          <t>MXC93247</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>iRyF-IaTc</t>
+          <t>fcAI-rABo</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MYX47244</t>
+          <t>MXM72788</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>zpLV-zFXv</t>
+          <t>iRyF-IaTc</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>NAQ63112</t>
+          <t>MYX47244</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>vedO-3joS</t>
+          <t>zpLV-zFXv</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>NCL61296</t>
+          <t>NAQ63112</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MTj9-lIY8</t>
+          <t>vedO-3joS</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>NDJ67099</t>
+          <t>NCL61296</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>hrBW-w842</t>
+          <t>MTj9-lIY8</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>NLP67632</t>
+          <t>NDJ67099</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>b9F6-vbZ5</t>
+          <t>hrBW-w842</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>NPD00961</t>
+          <t>NLP67632</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>aI8u-zYiw</t>
+          <t>b9F6-vbZ5</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>NUI19784</t>
+          <t>NPD00961</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>mF1f-kCQW</t>
+          <t>aI8u-zYiw</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>NWX06153</t>
+          <t>NUI19784</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>N3G4-xe8w</t>
+          <t>mF1f-kCQW</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>NYF03161</t>
+          <t>NWX06153</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>zMxQ-K0fi</t>
+          <t>N3G4-xe8w</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>NZW46214</t>
+          <t>NYF03161</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>09st-zHFg</t>
+          <t>zMxQ-K0fi</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>NZZ50766</t>
+          <t>NZW46214</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>XINJ-KGsC</t>
+          <t>09st-zHFg</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>OBI75581</t>
+          <t>NZZ50766</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Mygc-BSFY</t>
+          <t>XINJ-KGsC</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>OKY47911</t>
+          <t>OBI75581</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>uSoZ-cHIn</t>
+          <t>Mygc-BSFY</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ORR85927</t>
+          <t>OKY47911</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>JgtA-rF6p</t>
+          <t>uSoZ-cHIn</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ORT63362</t>
+          <t>ORR85927</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>XZT6-FxOF</t>
+          <t>JgtA-rF6p</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>OSB52441</t>
+          <t>ORT63362</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>I1Cv-DmRA</t>
+          <t>XZT6-FxOF</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>OWR55957</t>
+          <t>OSB52441</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>5xs5-2GVm</t>
+          <t>I1Cv-DmRA</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>OXE34055</t>
+          <t>OWR55957</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>QMAt-FrNE</t>
+          <t>5xs5-2GVm</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>OYK39161</t>
+          <t>OXE34055</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>nDoT-dKaH</t>
+          <t>QMAt-FrNE</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>OYZ43696</t>
+          <t>OYK39161</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NE1A-0H4Y</t>
+          <t>nDoT-dKaH</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>PDL18808</t>
+          <t>OYZ43696</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>AyIU-xTfq</t>
+          <t>NE1A-0H4Y</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>PDY46515</t>
+          <t>PDL18808</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Gg8E-S2pr</t>
+          <t>AyIU-xTfq</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>PEP57928</t>
+          <t>PDY46515</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>o921-Slsb</t>
+          <t>Gg8E-S2pr</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>PJT16152</t>
+          <t>PEP57928</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ExFD-xCid</t>
+          <t>o921-Slsb</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>PLL97657</t>
+          <t>PJT16152</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NWjX-D2LF</t>
+          <t>ExFD-xCid</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>PVU41752</t>
+          <t>PLL97657</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ugqe-Crjb</t>
+          <t>NWjX-D2LF</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>QFN79396</t>
+          <t>PVU41752</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>jXUf-ZSmc</t>
+          <t>ugqe-Crjb</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>QFU06512</t>
+          <t>QFN79396</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MNwE-V6p6</t>
+          <t>jXUf-ZSmc</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>QRB56514</t>
+          <t>QFU06512</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ZmLU-WzDm</t>
+          <t>MNwE-V6p6</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>QUE22078</t>
+          <t>QRB56514</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>tCyA-Oi7m</t>
+          <t>ZmLU-WzDm</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>QYS77373</t>
+          <t>QUE22078</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>bdKc-q4v6</t>
+          <t>tCyA-Oi7m</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>RBA20127</t>
+          <t>QYS77373</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>oE79-b1Se</t>
+          <t>bdKc-q4v6</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>RLQ73857</t>
+          <t>RBA20127</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>QZVO-4p3B</t>
+          <t>oE79-b1Se</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>RNL06004</t>
+          <t>RLQ73857</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>WaLc-sBJY</t>
+          <t>QZVO-4p3B</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>RSN71799</t>
+          <t>RNL06004</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>APKz-8tHA</t>
+          <t>WaLc-sBJY</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SAF98648</t>
+          <t>RSN71799</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>JUDx-dQqy</t>
+          <t>APKz-8tHA</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SDE98641</t>
+          <t>SAF98648</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>E4LL-qV7u</t>
+          <t>JUDx-dQqy</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SEV98034</t>
+          <t>SDE98641</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>3FMv-ztV8</t>
+          <t>E4LL-qV7u</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SGE51092</t>
+          <t>SEV98034</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>9G7O-tS42</t>
+          <t>3FMv-ztV8</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SLP43775</t>
+          <t>SGE51092</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>JIk1-QTjm</t>
+          <t>9G7O-tS42</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SMF79012</t>
+          <t>SLP43775</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NcnL-Ufev</t>
+          <t>JIk1-QTjm</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SNZ44527</t>
+          <t>SMF79012</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Idtr-Ef1p</t>
+          <t>NcnL-Ufev</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SPZ85652</t>
+          <t>SNZ44527</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>BqNU-jKbs</t>
+          <t>Idtr-Ef1p</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SQX65443</t>
+          <t>SPZ85652</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2Y2u-Iexu</t>
+          <t>BqNU-jKbs</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SSU10232</t>
+          <t>SQX65443</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2s1b-MrBM</t>
+          <t>2Y2u-Iexu</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SYH46751</t>
+          <t>SSU10232</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>g47k-j3HG</t>
+          <t>2s1b-MrBM</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>TKW11810</t>
+          <t>SYH46751</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>XbfA-yocA</t>
+          <t>g47k-j3HG</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>TMJ36970</t>
+          <t>TKW11810</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NiMt-vJm1</t>
+          <t>XbfA-yocA</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>TRC98148</t>
+          <t>TMJ36970</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ImK9-sJVr</t>
+          <t>NiMt-vJm1</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>TTS04230</t>
+          <t>TRC98148</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>oJvJ-C0eE</t>
+          <t>ImK9-sJVr</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>TXC42578</t>
+          <t>TTS04230</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ttrI-HkEA</t>
+          <t>oJvJ-C0eE</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>UUR79971</t>
+          <t>TXC42578</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2Vvw-yPgX</t>
+          <t>ttrI-HkEA</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>VDD06679</t>
+          <t>UUR79971</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>9NFD-F33z</t>
+          <t>2Vvw-yPgX</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>VEQ81429</t>
+          <t>VDD06679</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>xnGV-gtxP</t>
+          <t>9NFD-F33z</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>VPE32737</t>
+          <t>VEQ81429</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>83SX-bO49</t>
+          <t>xnGV-gtxP</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>WJH36041</t>
+          <t>VPE32737</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>yPk4-9kvI</t>
+          <t>83SX-bO49</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>WNA57398</t>
+          <t>WJH36041</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CU9v-k8Hc</t>
+          <t>yPk4-9kvI</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>WUA13603</t>
+          <t>WNA57398</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>hdCj-fLq2</t>
+          <t>CU9v-k8Hc</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>WUH93925</t>
+          <t>WUA13603</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>8m3J-Gzlk</t>
+          <t>hdCj-fLq2</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>WWS24235</t>
+          <t>WUH93925</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>dTMF-Ocal</t>
+          <t>8m3J-Gzlk</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>XKS75480</t>
+          <t>WWS24235</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>c0hS-CdvD</t>
+          <t>dTMF-Ocal</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>XOA75961</t>
+          <t>XKS75480</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>VRah-kBaa</t>
+          <t>c0hS-CdvD</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>XYT33259</t>
+          <t>XOA75961</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ahUH-85T2</t>
+          <t>VRah-kBaa</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>XYZ70850</t>
+          <t>XYT33259</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>jdV6-HalU</t>
+          <t>ahUH-85T2</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>YBX87679</t>
+          <t>XYZ70850</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>442D-goVh</t>
+          <t>jdV6-HalU</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>YCN31679</t>
+          <t>YBX87679</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>SBfE-010a</t>
+          <t>442D-goVh</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>YFU10307</t>
+          <t>YCN31679</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>pv8C-S2qP</t>
+          <t>SBfE-010a</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>YGP30798</t>
+          <t>YFU10307</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>dZEv-nHKw</t>
+          <t>pv8C-S2qP</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>YHZ51082</t>
+          <t>YGP30798</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>7j63-7HKa</t>
+          <t>dZEv-nHKw</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>YOT12953</t>
+          <t>YHZ51082</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>SxGc-ZaIN</t>
+          <t>7j63-7HKa</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ZAM21080</t>
+          <t>YOT12953</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>COFy-pMla</t>
+          <t>SxGc-ZaIN</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ZHU54125</t>
+          <t>ZAM21080</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>5RJe-0r17</t>
+          <t>COFy-pMla</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ZLP77106</t>
+          <t>ZHU54125</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>djSn-TgS9</t>
+          <t>5RJe-0r17</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ZNA23106</t>
+          <t>ZLP77106</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>SHid-kPC3</t>
+          <t>djSn-TgS9</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ZSU27095</t>
+          <t>ZNA23106</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>3TQp-7e2s</t>
+          <t>SHid-kPC3</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
+          <t>ZSU27095</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>3TQp-7e2s</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
           <t>ZVK04224</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>9gaA-gLOl</t>
         </is>
